--- a/MVP_02/SHOPPING_LISTS/LASERBEEST/LASERBEEST.xlsx
+++ b/MVP_02/SHOPPING_LISTS/LASERBEEST/LASERBEEST.xlsx
@@ -535,7 +535,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="1">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="1">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>

--- a/MVP_02/SHOPPING_LISTS/LASERBEEST/LASERBEEST.xlsx
+++ b/MVP_02/SHOPPING_LISTS/LASERBEEST/LASERBEEST.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -107,12 +107,6 @@
   </si>
   <si>
     <t>PMMA</t>
-  </si>
-  <si>
-    <t>PLA</t>
-  </si>
-  <si>
-    <t>Material &lt;not specified&gt;</t>
   </si>
 </sst>
 </file>
@@ -500,7 +494,7 @@
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -709,7 +703,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -735,7 +729,7 @@
         <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
@@ -761,7 +755,7 @@
         <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>

--- a/MVP_02/SHOPPING_LISTS/LASERBEEST/LASERBEEST.xlsx
+++ b/MVP_02/SHOPPING_LISTS/LASERBEEST/LASERBEEST.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -64,6 +64,9 @@
     <t>20-019468</t>
   </si>
   <si>
+    <t>20-019529</t>
+  </si>
+  <si>
     <t>20-019500</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>FRONT COVER</t>
+  </si>
+  <si>
+    <t>COVER D</t>
   </si>
   <si>
     <t>COVER A</t>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -529,25 +535,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -555,25 +561,25 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -581,25 +587,25 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -607,25 +613,25 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -633,25 +639,25 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -659,25 +665,25 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -685,79 +691,105 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="1">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="1">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="1">
+        <v>119</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="1">
         <v>1</v>
       </c>
     </row>
